--- a/InputData/plcy-schd/FY/FY Future Years.xlsx
+++ b/InputData/plcy-schd/FY/FY Future Years.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\plcy-schd\FY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\plcy-schd\FY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21A683-9523-4DE0-9A38-94035A233DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A11848-89A1-46A2-AED1-E86E1643D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{70679913-52CE-4866-92D3-04053F7F27F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{70679913-52CE-4866-92D3-04053F7F27F8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6602441D-D56C-41AD-B87E-E90087615EB8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA74B36-1D0A-45A2-9167-2B70446AECC4}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
